--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB63D993-736E-4746-B480-521A9216914C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +23,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+目标对象:
+1.选取的人物
+2.自己</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>number</t>
   </si>
@@ -39,14 +74,47 @@
     <t>desc</t>
   </si>
   <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成&lt;#x&gt;点护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成&lt;#x&gt;点治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自己造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自己造成&lt;#x&gt;点护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自己造成&lt;#x&gt;点治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +128,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -363,41 +444,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="25.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,6 +50,26 @@
           </rPr>
           <t xml:space="preserve">
 目标对象:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0:攻击本身</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 1.选取的人物
 2.自己</t>
         </r>
@@ -60,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>number</t>
   </si>
@@ -107,6 +127,10 @@
   </si>
   <si>
     <t>击退&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与效果(buff)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +164,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -448,7 +479,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -559,6 +590,12 @@
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -663,6 +700,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32951D54-0A7F-49B9-8A4F-53CE0781E22D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="1752" yWindow="2808" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -102,42 +103,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成&lt;#x&gt;点护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成&lt;#x&gt;点治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对自己造成&lt;#x&gt;点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对自己造成&lt;#x&gt;点护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对自己造成&lt;#x&gt;点治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>击退&lt;#x&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>给与效果(buff)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与目标&lt;#x&gt;点护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;#x&gt;点护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;#x&gt;点治疗效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与目标&lt;#x&gt;点治疗效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,19 +476,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="25.5" customWidth="1"/>
+    <col min="2" max="3" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -509,190 +510,190 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32951D54-0A7F-49B9-8A4F-53CE0781E22D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1752" yWindow="2808" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="2805" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>number</t>
   </si>
@@ -132,13 +131,17 @@
   </si>
   <si>
     <t>给与目标&lt;#x&gt;点治疗效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽&lt;#x&gt;张牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,19 +479,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="25.44140625" customWidth="1"/>
+    <col min="2" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -510,7 +513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -521,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -532,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -543,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -554,7 +557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -565,7 +568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -576,7 +579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -587,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -598,102 +601,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -72,6 +72,31 @@
           <t xml:space="preserve">
 1.选取的人物
 2.自己</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+r_value[0] buff id
+r_value[1]。。参数</t>
         </r>
       </text>
     </comment>
@@ -483,7 +508,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5300E3-2429-4EA5-8134-CF0C6F871D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="2805" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -37,6 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Windows 用户:</t>
@@ -46,6 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -67,6 +70,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -75,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,6 +87,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Windows 用户:</t>
@@ -92,6 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -166,8 +172,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,16 +192,11 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -504,19 +505,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="25.5" customWidth="1"/>
+    <col min="2" max="3" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -538,7 +539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -549,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -560,7 +561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -571,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -582,7 +583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -593,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -604,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -615,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -626,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -637,97 +638,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5300E3-2429-4EA5-8134-CF0C6F871D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5FB1EC-F850-40C8-85DC-D10B761436D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,12 +106,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{618BC9BD-3C39-45A2-B321-A91B85623C56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+r_value[0] buff id
+r_value[1]。。参数</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>number</t>
   </si>
@@ -141,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>给与效果(buff)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对目标造成&lt;#x&gt;点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +189,25 @@
   </si>
   <si>
     <t>抽&lt;#x&gt;张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0707</t>
+  </si>
+  <si>
+    <t>CF0707</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,18 +548,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +570,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -538,41 +584,53 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -582,30 +640,39 @@
       <c r="C6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -615,50 +682,68 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5FB1EC-F850-40C8-85DC-D10B761436D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8344EF96-F6B4-40CD-ABCF-0AAA4C50ED8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,29 +53,11 @@
           </rPr>
           <t xml:space="preserve">
 目标对象:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0:攻击本身</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+0:攻击本身
 1.选取的人物
-2.自己</t>
+2.自己
+3.己方全体
+4.敌方全体</t>
         </r>
       </text>
     </comment>
@@ -107,6 +89,60 @@
       </text>
     </comment>
     <comment ref="B12" authorId="0" shapeId="0" xr:uid="{618BC9BD-3C39-45A2-B321-A91B85623C56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+r_value[0] buff id
+r_value[1]。。参数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{D0B24CE2-A06F-464D-975C-20E27CF76E45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+r_value[0] buff id
+r_value[1]。。参数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{FD07279E-C806-4424-BACE-C5CB4046ED2F}">
       <text>
         <r>
           <rPr>
@@ -138,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>number</t>
   </si>
@@ -196,18 +232,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF0707</t>
-  </si>
-  <si>
-    <t>CF0707</t>
+    <t>己方全体解穴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -560,7 +585,7 @@
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,11 +595,8 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -584,11 +606,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -598,11 +617,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -612,11 +628,8 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -626,11 +639,8 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -640,11 +650,8 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -654,11 +661,8 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -668,11 +672,8 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -682,11 +683,8 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -696,11 +694,8 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -710,11 +705,8 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -724,26 +716,41 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8344EF96-F6B4-40CD-ABCF-0AAA4C50ED8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E903242B-404B-4618-9E4B-8E378A4CB3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>number</t>
   </si>
@@ -233,6 +233,18 @@
   </si>
   <si>
     <t>己方全体解穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身获得&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全体&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方全体&lt;#x&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +588,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -711,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -733,10 +745,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -744,10 +756,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E903242B-404B-4618-9E4B-8E378A4CB3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8BFDF8-8950-4E12-A896-A1EEFA229A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,8 @@
 1.选取的人物
 2.自己
 3.己方全体
-4.敌方全体</t>
+4.敌方全体
+5.卡牌</t>
         </r>
       </text>
     </comment>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>number</t>
   </si>
@@ -246,6 +247,21 @@
   <si>
     <t>对方全体&lt;#x&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0707</t>
   </si>
 </sst>
 </file>
@@ -303,8 +319,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -585,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -597,7 +616,7 @@
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,8 +626,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -618,8 +640,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -630,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -641,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -652,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -663,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -674,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -685,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -696,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -707,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -718,7 +743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -729,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -740,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -751,7 +776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -762,9 +787,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8BFDF8-8950-4E12-A896-A1EEFA229A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD4F472-5EC1-4C50-B771-B3C6BC264E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>number</t>
   </si>
@@ -262,6 +262,10 @@
   </si>
   <si>
     <t>CF0707</t>
+  </si>
+  <si>
+    <t>卡牌buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -607,7 +611,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -801,72 +805,78 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD4F472-5EC1-4C50-B771-B3C6BC264E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +61,36 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+结果值类型:
+1.普通结果
+2.前置结果(在普通结果之前执行)
+3.使用结果(在出牌的时候,放入抽牌堆之类)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{618BC9BD-3C39-45A2-B321-A91B85623C56}">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{D0B24CE2-A06F-464D-975C-20E27CF76E45}">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{FD07279E-C806-4424-BACE-C5CB4046ED2F}">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>number</t>
   </si>
@@ -265,13 +293,29 @@
   </si>
   <si>
     <t>卡牌buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃&lt;#x&gt;张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃掉所有牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,20 +651,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="2" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,10 +675,13 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -645,10 +692,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -658,8 +708,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -669,8 +722,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -680,8 +736,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -691,8 +750,11 @@
       <c r="C6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -702,8 +764,11 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -713,8 +778,11 @@
       <c r="C8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -724,8 +792,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -735,8 +806,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -746,8 +820,11 @@
       <c r="C11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -757,8 +834,11 @@
       <c r="C12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -768,8 +848,11 @@
       <c r="C13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -779,8 +862,11 @@
       <c r="C14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -790,8 +876,11 @@
       <c r="C15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -801,11 +890,14 @@
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -815,68 +907,89 @@
       <c r="C17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A78F99-B6D0-49ED-946C-9C3A9CB74D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +316,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,20 +652,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="2" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -698,7 +699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -712,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -726,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -740,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -754,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -768,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -782,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -796,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -810,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -824,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -838,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -852,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -866,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -880,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -897,7 +898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -911,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -925,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -939,57 +940,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A78F99-B6D0-49ED-946C-9C3A9CB74D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,11 +57,12 @@
 2.自己
 3.己方全体
 4.敌方全体
-5.卡牌</t>
+5.卡牌
+6.敌方随机目标</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,11 +87,12 @@
 结果值类型:
 1.普通结果
 2.前置结果(在普通结果之前执行)
-3.使用结果(在出牌的时候,放入抽牌堆之类)</t>
+3.使用结果(在出牌的时候,放入抽牌堆之类)
+4.后置结果(在普通结果之后,如果这张牌击杀一个单位xxx)</t>
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>number</t>
   </si>
@@ -310,13 +311,17 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用此牌造成击杀效果,则将击杀目标身上的毒转移到随机的其他目标身上。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,20 +657,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -699,7 +705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -713,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -727,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -741,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -755,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -769,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -783,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -797,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -811,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -825,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -839,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -853,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -867,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -881,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -898,7 +904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -912,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -926,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -940,57 +946,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A13511-9E0F-46B6-AB52-326886796605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +174,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+r_value[0] buff id
+r_value[1]。。参数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{D0369925-3FF6-4242-A011-B408F4A4B0CF}">
       <text>
         <r>
           <rPr>
@@ -205,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>number</t>
   </si>
@@ -321,7 +349,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,21 +685,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -705,7 +733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -719,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -733,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -747,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -761,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -775,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -789,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -803,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -817,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -831,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -845,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -859,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -873,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -887,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -904,7 +932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -918,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -932,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -946,7 +974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -960,52 +988,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A13511-9E0F-46B6-AB52-326886796605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F7B9B6-6D49-45B2-9954-0206AA0B657A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -971,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F7B9B6-6D49-45B2-9954-0206AA0B657A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,11 +88,12 @@
 1.普通结果
 2.前置结果(在普通结果之前执行)
 3.使用结果(在出牌的时候,放入抽牌堆之类)
-4.后置结果(在普通结果之后,如果这张牌击杀一个单位xxx)</t>
+4.后置结果(在普通结果之后,如果这张牌击杀一个单位xxx)
+5.弃牌阶段结果（虚无那种,在弃牌阶段造成的结果值）</t>
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{D0369925-3FF6-4242-A011-B408F4A4B0CF}">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>number</t>
   </si>
@@ -255,101 +255,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>击退&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与目标&lt;#x&gt;点护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;#x&gt;点护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;#x&gt;点治疗效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与目标&lt;#x&gt;点治疗效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽&lt;#x&gt;张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全体解穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身获得&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全体&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方全体&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0707</t>
+  </si>
+  <si>
+    <t>卡牌buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃&lt;#x&gt;张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃掉所有牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用此牌造成击杀效果,则将击杀目标身上的毒转移到随机的其他目标身上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择&lt;#x&gt;张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>对自己造成&lt;#x&gt;点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>击退&lt;#x&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与目标&lt;#x&gt;点护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与自己&lt;#x&gt;点护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与自己&lt;#x&gt;点治疗效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与目标&lt;#x&gt;点治疗效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽&lt;#x&gt;张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与&lt;#x&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方全体解穴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身获得&lt;#x&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方全体&lt;#x&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方全体&lt;#x&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌燃烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF0707</t>
-  </si>
-  <si>
-    <t>卡牌buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃&lt;#x&gt;张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃掉所有牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果用此牌造成击杀效果,则将击杀目标身上的毒转移到随机的其他目标身上。</t>
+    <t>对自己造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自己造成&lt;#x&gt;点伤害(与改侠客内功相关)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -685,21 +701,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
-    <col min="3" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -710,13 +726,13 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -727,33 +743,33 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4">
         <v>1</v>
       </c>
@@ -761,12 +777,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -775,12 +791,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -789,12 +805,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -803,12 +819,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -817,12 +833,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -831,12 +847,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -845,12 +861,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -859,12 +875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -873,12 +889,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -887,12 +903,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -901,12 +917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -915,12 +931,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -929,15 +945,15 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -946,12 +962,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -960,12 +976,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -974,12 +990,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -988,12 +1004,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1002,47 +1018,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>number</t>
   </si>
@@ -359,6 +359,22 @@
   </si>
   <si>
     <t>对自己造成&lt;#x&gt;点伤害(与改侠客内功相关)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往目标弃牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己弃牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往目标抽牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己抽牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +721,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1078,20 +1094,56 @@
       <c r="A26">
         <v>24</v>
       </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -721,7 +721,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>number</t>
   </si>
@@ -259,122 +259,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>给与目标&lt;#x&gt;点护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;#x&gt;点护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;#x&gt;点治疗效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与目标&lt;#x&gt;点治疗效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽&lt;#x&gt;张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全体解穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身获得&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全体&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方全体&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0707</t>
+  </si>
+  <si>
+    <t>卡牌buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃&lt;#x&gt;张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃掉所有牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用此牌造成击杀效果,则将击杀目标身上的毒转移到随机的其他目标身上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择&lt;#x&gt;张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自己造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自己造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自己造成&lt;#x&gt;点伤害(与改侠客内功相关)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往目标弃牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己弃牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往目标抽牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己抽牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>对目标造成&lt;#x&gt;点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>给与目标&lt;#x&gt;点护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与自己&lt;#x&gt;点护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与自己&lt;#x&gt;点治疗效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与目标&lt;#x&gt;点治疗效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽&lt;#x&gt;张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与&lt;#x&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方全体解穴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身获得&lt;#x&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方全体&lt;#x&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方全体&lt;#x&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌燃烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF0707</t>
-  </si>
-  <si>
-    <t>卡牌buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃&lt;#x&gt;张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃掉所有牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果用此牌造成击杀效果,则将击杀目标身上的毒转移到随机的其他目标身上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择&lt;#x&gt;张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对自己造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对自己造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对自己造成&lt;#x&gt;点伤害(与改侠客内功相关)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往目标弃牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往自己弃牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往目标抽牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往自己抽牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <t>对目标造成&lt;#x&gt;点伤害,与目标中间每隔一个人,伤害加一倍。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,10 +750,10 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -759,10 +767,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -770,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -784,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -798,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -812,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -826,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -840,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -868,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -882,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -896,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -910,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -924,7 +932,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -938,7 +946,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -952,7 +960,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -961,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -969,7 +977,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -983,7 +991,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -997,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1011,7 +1019,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1025,7 +1033,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1039,7 +1047,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1053,7 +1061,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -1067,7 +1075,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1081,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1095,7 +1103,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1109,7 +1117,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1123,7 +1131,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1137,7 +1145,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1149,6 +1157,74 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>number</t>
   </si>
@@ -383,6 +383,10 @@
   </si>
   <si>
     <t>对目标造成&lt;#x&gt;点伤害,与目标中间每隔一个人,伤害加一倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧所有牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +733,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1186,6 +1190,15 @@
       <c r="A32">
         <v>30</v>
       </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0CCC59-75A7-439F-AA87-424594158DBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>number</t>
   </si>
@@ -374,10 +375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对目标造成&lt;#x&gt;点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,13 +384,17 @@
   </si>
   <si>
     <t>燃烧所有牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神行&lt;#x&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,21 +730,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -777,12 +778,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -791,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -805,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -819,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -833,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -847,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -861,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -875,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -889,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -903,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -917,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -931,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -945,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -959,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -976,7 +977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -990,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1158,12 +1159,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1171,13 +1172,16 @@
       <c r="D30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1186,12 +1190,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1200,42 +1204,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0CCC59-75A7-439F-AA87-424594158DBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72057598-C0F4-4C89-B338-EF3513E1754F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>number</t>
   </si>
@@ -319,10 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弃&lt;#x&gt;张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弃掉所有牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,14 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对自己造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对自己造成&lt;#x&gt;点伤害(与改侠客内功相关)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>往目标弃牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,6 +376,22 @@
   </si>
   <si>
     <t>神行&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得&lt;#x&gt;点真气值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在手牌中时,在弃牌阶段对自己造成&lt;#x&gt;点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在手牌中时,在弃牌阶段对自己造成&lt;#x&gt;点伤害(与改侠客内功相关)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃掉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,13 +737,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="4" width="25.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
@@ -755,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -772,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -783,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -825,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -996,7 +1000,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1010,7 +1014,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1024,7 +1028,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1052,7 +1056,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1066,7 +1070,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -1080,7 +1084,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1094,7 +1098,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1108,7 +1112,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1122,7 +1126,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1136,7 +1140,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1150,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1164,7 +1168,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1181,7 +1185,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1195,7 +1199,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1204,42 +1208,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72057598-C0F4-4C89-B338-EF3513E1754F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +397,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -734,21 +733,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="3" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -782,7 +781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -796,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -810,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -824,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -838,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -852,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -866,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -880,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -894,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -908,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -922,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -936,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -950,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -964,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -981,7 +980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -995,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1051,7 +1050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1093,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1149,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1163,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1194,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1222,37 +1221,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -85,6 +85,7 @@
           </rPr>
           <t xml:space="preserve">
 结果值类型:
+0.null
 1.普通结果
 2.前置结果(在普通结果之前执行)
 3.使用结果(在出牌的时候,放入抽牌堆之类)
@@ -233,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>number</t>
   </si>
@@ -391,6 +392,18 @@
   </si>
   <si>
     <t>弃掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌中随机一张拳法牌,在本回合中为0费。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌中所有真气值消耗大于等于&lt;#x&gt;得卡牌,本局内永远减少&lt;#y&gt;费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,7 +750,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1225,15 +1238,42 @@
       <c r="A34">
         <v>32</v>
       </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4B31B9-BE53-4043-945F-F68807C0C82D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +411,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -746,21 +747,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="3" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -794,7 +795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -808,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -822,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -836,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -850,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -864,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -878,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -892,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -906,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -920,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -934,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -948,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -962,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -976,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -993,7 +994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1175,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1276,22 +1277,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4B31B9-BE53-4043-945F-F68807C0C82D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE8CE8B-A04E-48FD-B651-849ACCEF6371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>给与目标&lt;#x&gt;点护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>给与自己&lt;#x&gt;点护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,10 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>给与目标&lt;#x&gt;点治疗效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抽&lt;#x&gt;张牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,10 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对目标造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对目标造成&lt;#x&gt;点伤害,与目标中间每隔一个人,伤害加一倍。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,6 +393,18 @@
   </si>
   <si>
     <t>固有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对&lt;#t&gt;造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#t&gt;&lt;#x&gt;点护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#t&gt;&lt;#x&gt;点治疗效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -772,10 +772,10 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,10 +789,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -814,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -856,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -870,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -898,7 +898,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -926,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -940,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -954,7 +954,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -968,7 +968,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -982,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -991,7 +991,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1013,7 +1013,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1027,7 +1027,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1041,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1069,7 +1069,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1083,7 +1083,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -1097,7 +1097,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1111,7 +1111,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1125,7 +1125,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1139,7 +1139,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1153,7 +1153,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1181,7 +1181,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1212,7 +1212,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1226,7 +1226,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1240,7 +1240,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -1254,7 +1254,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1268,7 +1268,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>5</v>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE8CE8B-A04E-48FD-B651-849ACCEF6371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EF6AA2-A011-42AA-955D-C4FB528995B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,8 @@
 2.前置结果(在普通结果之前执行)
 3.使用结果(在出牌的时候,放入抽牌堆之类)
 4.后置结果(在普通结果之后,如果这张牌击杀一个单位xxx)
-5.弃牌阶段结果（虚无那种,在弃牌阶段造成的结果值）</t>
+5.弃牌阶段结果（虚无那种,在弃牌阶段造成的结果值）
+6.抽牌阶段 卡牌响应(剑伤)</t>
         </r>
       </text>
     </comment>
@@ -235,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>number</t>
   </si>
@@ -340,18 +341,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>往目标弃牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>往自己弃牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>往目标抽牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>往自己抽牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,6 +398,26 @@
   </si>
   <si>
     <t>给与&lt;#t&gt;&lt;#x&gt;点治疗效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有N点剑法,获得Nx&lt;#x&gt;点剑气和点剑意,并失去一点剑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己手牌放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往&lt;#t&gt;弃牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往&lt;#t&gt;抽牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽到这张牌时对自己造成&lt;#x&gt;点伤害(与改侠客剑法相关)。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -800,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -814,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -828,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1013,7 +1026,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1097,7 +1110,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1111,7 +1124,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1125,7 +1138,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1139,7 +1152,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1153,7 +1166,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1167,7 +1180,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1181,7 +1194,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1198,7 +1211,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1212,7 +1225,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1226,7 +1239,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1240,7 +1253,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -1254,7 +1267,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1268,7 +1281,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1281,15 +1294,42 @@
       <c r="A37">
         <v>35</v>
       </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EF6AA2-A011-42AA-955D-C4FB528995B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,11 +58,12 @@
 3.己方全体
 4.敌方全体
 5.卡牌
-6.敌方随机目标</t>
+6.敌方随机目标
+7.选择的物品</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>number</t>
   </si>
@@ -418,13 +418,21 @@
   </si>
   <si>
     <t>抽到这张牌时对自己造成&lt;#x&gt;点伤害(与改侠客剑法相关)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择&lt;#x&gt;个暗器.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对&lt;#t&gt;造成&lt;#x&gt;点伤害(附带暗器伤害和效果)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,21 +768,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="3" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -808,7 +816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -822,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -836,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -850,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -864,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -878,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -892,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -906,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -920,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -934,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -948,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -962,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -976,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -990,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1007,7 +1015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1021,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1049,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1063,7 +1071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1077,7 +1085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1119,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1133,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1147,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1161,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1175,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1189,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1206,7 +1214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1220,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1234,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1248,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1262,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1276,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1290,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1304,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1318,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1332,9 +1340,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C00F16F-1782-4067-844B-CE5AF5E96D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -236,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>number</t>
   </si>
@@ -426,13 +427,17 @@
   </si>
   <si>
     <t>对&lt;#t&gt;造成&lt;#x&gt;点伤害(附带暗器伤害和效果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除自身所有负面状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -768,21 +773,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="3" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -816,7 +821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -830,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -844,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -858,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -872,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -886,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -900,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -914,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -928,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -942,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -956,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -970,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -984,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -998,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1015,7 +1020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1029,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1043,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1071,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1085,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1099,7 +1104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1113,7 +1118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1127,7 +1132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1141,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1155,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1169,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1183,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1197,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1214,7 +1219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1228,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1242,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1256,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1284,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1298,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1312,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1326,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1340,7 +1345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1354,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1368,37 +1373,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C00F16F-1782-4067-844B-CE5AF5E96D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>number</t>
   </si>
@@ -431,13 +430,17 @@
   </si>
   <si>
     <t>移除自身所有负面状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身真气消耗减少一点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -773,21 +776,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="3" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -804,7 +807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -821,7 +824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -835,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -849,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -863,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -877,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -891,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -905,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -919,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -933,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -947,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -961,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -975,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -989,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1387,32 +1390,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B9BFA3-EC0D-4ADA-85E3-A14097F10823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -433,14 +434,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自身真气消耗减少一点</t>
+    <t>打出后自身真气消耗减少一点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -776,21 +777,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="3" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -824,7 +825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -838,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -852,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -866,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -880,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -894,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -908,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -922,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -936,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -950,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -964,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -978,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -992,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1023,7 +1024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1065,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1236,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1348,7 +1349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1404,27 +1405,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B9BFA3-EC0D-4ADA-85E3-A14097F10823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F2CD86-0952-4197-988B-C0E82E551D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,7 +781,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F2CD86-0952-4197-988B-C0E82E551D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF19F214-0C53-4C25-AE30-B3F6CB60A933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,7 +781,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF19F214-0C53-4C25-AE30-B3F6CB60A933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607BCD65-214B-46C0-A245-4314269513F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607BCD65-214B-46C0-A245-4314269513F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EC8302-79C1-4673-BC34-62146881F28C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>number</t>
   </si>
@@ -259,18 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>击退&lt;#x&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与自己&lt;#x&gt;点护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与自己&lt;#x&gt;点治疗效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抽&lt;#x&gt;张牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>己方全体解穴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自身获得&lt;#x&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,22 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对自己造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往自己弃牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往自己抽牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标造成&lt;#x&gt;点伤害,与目标中间每隔一个人,伤害加一倍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>燃烧所有牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,18 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得&lt;#x&gt;点真气值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在手牌中时,在弃牌阶段对自己造成&lt;#x&gt;点伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在手牌中时,在弃牌阶段对自己造成&lt;#x&gt;点伤害(与改侠客内功相关)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弃掉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,26 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手牌中所有真气值消耗大于等于&lt;#x&gt;得卡牌,本局内永远减少&lt;#y&gt;费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对&lt;#t&gt;造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与&lt;#t&gt;&lt;#x&gt;点护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与&lt;#t&gt;&lt;#x&gt;点治疗效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每拥有N点剑法,获得Nx&lt;#x&gt;点剑气和点剑意,并失去一点剑法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,32 +346,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>往&lt;#t&gt;弃牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往&lt;#t&gt;抽牌堆放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽到这张牌时对自己造成&lt;#x&gt;点伤害(与改侠客剑法相关)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择&lt;#x&gt;个暗器.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对&lt;#t&gt;造成&lt;#x&gt;点伤害(附带暗器伤害和效果)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>移除自身所有负面状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打出后自身真气消耗减少一点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>在手牌中时,在弃牌阶段对自己造成&lt;#x&gt;点&lt;color=#b53030&gt;伤害&lt;/c&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在手牌中时,在弃牌阶段对自己造成&lt;#x&gt;点&lt;color=#b53030&gt;伤害&lt;/c&gt;(与改侠客内功相关)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成&lt;#x&gt;点&lt;color=#b53030&gt;伤害&lt;/c&gt;,与目标中间每隔一个人,伤害加一倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽到这张牌时对自己造成&lt;#x&gt;点&lt;color=#b53030&gt;伤害&lt;/c&gt;(与改侠客剑法相关)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择&lt;#x&gt;个&lt;color=#9630b5&gt;暗器&lt;/c&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对&lt;#t&gt;造成&lt;#x&gt;点&lt;color=#b53030&gt;伤害&lt;/c&gt;(附带&lt;color=#9630b5&gt;暗器&lt;/c&gt;伤害和效果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#846409&gt;固有&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出后自身&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗减少一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌中所有&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗大于等于&lt;#x&gt;得卡牌,本局内永远减少&lt;#y&gt;费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自己造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#t&gt;&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#t&gt;&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对&lt;#t&gt;造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;#t&gt;造成&lt;color=#846409&gt;击退&lt;#x&gt;&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全体&lt;color=#1ac7c8&gt;解穴&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30b5a5</t>
+  </si>
+  <si>
+    <t>9630b5</t>
+  </si>
+  <si>
+    <t>往&lt;#t&gt;&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往&lt;#t&gt;&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d74a5</t>
   </si>
 </sst>
 </file>
@@ -496,7 +505,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -802,10 +811,10 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,10 +828,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -830,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -838,13 +847,14 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -852,13 +862,14 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -866,13 +877,14 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -880,13 +892,14 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -894,13 +907,14 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -908,13 +922,14 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -922,13 +937,14 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -936,13 +952,14 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -950,13 +967,14 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -964,13 +982,14 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -978,13 +997,14 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -992,13 +1012,14 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1006,13 +1027,14 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1021,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1043,13 +1065,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
         <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1057,13 +1082,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
         <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1071,7 +1099,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1079,13 +1107,14 @@
       <c r="D20">
         <v>4</v>
       </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1093,13 +1122,14 @@
       <c r="D21">
         <v>4</v>
       </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1107,19 +1137,23 @@
       <c r="D22">
         <v>2</v>
       </c>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23">
         <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1127,7 +1161,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1135,13 +1169,14 @@
       <c r="D24">
         <v>5</v>
       </c>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1149,13 +1184,14 @@
       <c r="D25">
         <v>5</v>
       </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1163,13 +1199,14 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1177,13 +1214,14 @@
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1191,13 +1229,14 @@
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1205,13 +1244,14 @@
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1220,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1228,7 +1268,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1236,13 +1276,14 @@
       <c r="D31">
         <v>1</v>
       </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1250,13 +1291,16 @@
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1264,13 +1308,14 @@
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -1278,13 +1323,14 @@
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1292,13 +1338,14 @@
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1306,13 +1353,14 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1320,13 +1368,14 @@
       <c r="D37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1334,13 +1383,14 @@
       <c r="D38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1348,13 +1398,14 @@
       <c r="D39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1362,13 +1413,14 @@
       <c r="D40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1376,13 +1428,14 @@
       <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1390,13 +1443,14 @@
       <c r="D42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1404,28 +1458,29 @@
       <c r="D43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EC8302-79C1-4673-BC34-62146881F28C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -786,21 +785,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="3" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -834,7 +833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -849,7 +848,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -864,7 +863,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -879,7 +878,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -894,7 +893,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -909,7 +908,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -924,7 +923,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -939,7 +938,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -954,7 +953,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -969,7 +968,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -984,7 +983,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -999,7 +998,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1014,7 +1013,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1029,7 +1028,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1077,7 +1076,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1109,7 +1108,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1124,7 +1123,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1139,7 +1138,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1171,7 +1170,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1186,7 +1185,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1201,7 +1200,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1216,7 +1215,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1231,7 +1230,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1246,7 +1245,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1263,7 +1262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1278,7 +1277,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1310,7 +1309,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1325,7 +1324,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1340,7 +1339,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1355,7 +1354,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1370,7 +1369,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1385,7 +1384,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1400,7 +1399,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1415,7 +1414,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1430,7 +1429,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1445,7 +1444,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1460,27 +1459,27 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B32D3B0-3DEC-42FB-9F1B-5434F9245349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -236,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>number</t>
   </si>
@@ -278,10 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌燃烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>color</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,10 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>燃烧所有牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>神行&lt;#x&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,32 +417,58 @@
     <t>30b5a5</t>
   </si>
   <si>
+    <t>往&lt;#t&gt;&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往&lt;#t&gt;&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁所有手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30b5a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>9630b5</t>
-  </si>
-  <si>
-    <t>往&lt;#t&gt;&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往&lt;#t&gt;&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往自己&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1d74a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,&lt;color=#2E5AD7&gt;所有友方单位&lt;/c&gt;获得&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -785,21 +804,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" customWidth="1"/>
+    <col min="3" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,13 +829,13 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -827,18 +846,18 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -848,12 +867,12 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -863,12 +882,12 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -878,12 +897,12 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -893,12 +912,12 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -908,12 +927,12 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -923,12 +942,12 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -938,7 +957,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -953,7 +972,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -968,7 +987,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -983,12 +1002,12 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -998,7 +1017,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1013,7 +1032,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1028,12 +1047,12 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1042,15 +1061,15 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1059,12 +1078,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1073,15 +1092,15 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1090,15 +1109,15 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1108,7 +1127,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1123,12 +1142,12 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1138,12 +1157,12 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -1152,15 +1171,15 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1170,12 +1189,12 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1185,12 +1204,12 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1200,12 +1219,12 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1215,12 +1234,12 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1230,12 +1249,12 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1245,12 +1264,12 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1259,15 +1278,15 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1277,12 +1296,12 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1291,15 +1310,15 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1309,12 +1328,12 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -1324,12 +1343,12 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1339,12 +1358,12 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1354,12 +1373,12 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1369,12 +1388,12 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1384,12 +1403,12 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1399,12 +1418,12 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1414,12 +1433,12 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1429,12 +1448,12 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1444,12 +1463,12 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1459,27 +1478,45 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B32D3B0-3DEC-42FB-9F1B-5434F9245349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,18 +329,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每拥有N点剑法,获得Nx&lt;#x&gt;点剑气和点剑意,并失去一点剑法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>往自己手牌放入&lt;#x&gt;张&lt;#y&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移除自身所有负面状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在手牌中时,在弃牌阶段对自己造成&lt;#x&gt;点&lt;color=#b53030&gt;伤害&lt;/c&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,117 +349,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对&lt;#t&gt;造成&lt;#x&gt;点&lt;color=#b53030&gt;伤害&lt;/c&gt;(附带&lt;color=#9630b5&gt;暗器&lt;/c&gt;伤害和效果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#846409&gt;固有&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出后自身&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗减少一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌中所有&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗大于等于&lt;#x&gt;得卡牌,本局内永远减少&lt;#y&gt;费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自己造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;#t&gt;造成&lt;color=#846409&gt;击退&lt;#x&gt;&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30b5a5</t>
+  </si>
+  <si>
+    <t>往&lt;#t&gt;&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往&lt;#t&gt;&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁所有手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30b5a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9630b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d74a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,&lt;color=#2E5AD7&gt;所有友方单位&lt;/c&gt;获得&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全体&lt;color=#1ac7c8&gt;解穴&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有N点剑法,获得Nx&lt;#x&gt;点&lt;color=#3079b5&gt;剑气&lt;/c&gt;和点&lt;color=#3079b5&gt;剑意&lt;/c&gt;,之后失去所有剑法属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#3079b5&gt;移除&lt;/c&gt;自身所有&lt;color=#9630b5&gt;负面状态&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>选择&lt;#x&gt;个&lt;color=#9630b5&gt;暗器&lt;/c&gt;.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对&lt;#t&gt;造成&lt;#x&gt;点&lt;color=#b53030&gt;伤害&lt;/c&gt;(附带&lt;color=#9630b5&gt;暗器&lt;/c&gt;伤害和效果)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#846409&gt;固有&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出后自身&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗减少一点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌中所有&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗大于等于&lt;#x&gt;得卡牌,本局内永远减少&lt;#y&gt;费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>给与自己&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>给与自己&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对自己造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
+    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对&lt;#t&gt;造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#t&gt;&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>给与&lt;#t&gt;&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与&lt;#t&gt;&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对&lt;#t&gt;造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;#t&gt;造成&lt;color=#846409&gt;击退&lt;#x&gt;&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方全体&lt;color=#1ac7c8&gt;解穴&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30b5a5</t>
-  </si>
-  <si>
-    <t>往&lt;#t&gt;&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往&lt;#t&gt;&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往自己&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销毁所有手牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30b5a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF0707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9630b5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1d74a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,&lt;color=#2E5AD7&gt;所有友方单位&lt;/c&gt;获得&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -804,21 +803,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="76.33203125" customWidth="1"/>
-    <col min="3" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="76.375" customWidth="1"/>
+    <col min="3" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -852,12 +851,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -867,12 +866,12 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -882,12 +881,12 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -897,12 +896,12 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -912,12 +911,12 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -927,12 +926,12 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -942,12 +941,12 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -957,7 +956,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -972,7 +971,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -987,7 +986,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1002,12 +1001,12 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1017,7 +1016,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1032,7 +1031,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1047,12 +1046,12 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1061,10 +1060,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1078,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1092,10 +1091,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1109,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1127,7 +1126,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1142,7 +1141,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1157,7 +1156,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1171,15 +1170,15 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1189,12 +1188,12 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1204,12 +1203,12 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1219,12 +1218,12 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1234,12 +1233,12 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1249,12 +1248,12 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1264,7 +1263,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1278,15 +1277,15 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1296,12 +1295,12 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1313,12 +1312,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1328,7 +1327,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1343,12 +1342,12 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1358,12 +1357,12 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1373,12 +1372,12 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1388,12 +1387,12 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1403,12 +1402,12 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1418,12 +1417,12 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1433,12 +1432,12 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1448,12 +1447,12 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1463,12 +1462,12 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1478,12 +1477,12 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1492,12 +1491,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1506,17 +1505,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -361,106 +361,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>手牌中所有&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗大于等于&lt;#x&gt;得卡牌,本局内永远减少&lt;#y&gt;费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自己造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;#t&gt;造成&lt;color=#846409&gt;击退&lt;#x&gt;&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30b5a5</t>
+  </si>
+  <si>
+    <t>往&lt;#t&gt;&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往&lt;#t&gt;&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁所有手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30b5a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9630b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d74a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,&lt;color=#2E5AD7&gt;所有友方单位&lt;/c&gt;获得&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全体&lt;color=#1ac7c8&gt;解穴&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有N点剑法,获得Nx&lt;#x&gt;点&lt;color=#3079b5&gt;剑气&lt;/c&gt;和点&lt;color=#3079b5&gt;剑意&lt;/c&gt;,之后失去所有剑法属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#3079b5&gt;移除&lt;/c&gt;自身所有&lt;color=#9630b5&gt;负面状态&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#t&gt;&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#t&gt;&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手牌中所有&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗大于等于&lt;#x&gt;得卡牌,本局内永远减少&lt;#y&gt;费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与自己&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对自己造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;#t&gt;造成&lt;color=#846409&gt;击退&lt;#x&gt;&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30b5a5</t>
-  </si>
-  <si>
-    <t>往&lt;#t&gt;&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往&lt;#t&gt;&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往自己&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <t>选择&lt;#x&gt;个&lt;color=#9630b5&gt;暗器&lt;/c&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对&lt;#t&gt;造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>卡牌销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销毁所有手牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30b5a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF0707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9630b5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1d74a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,&lt;color=#2E5AD7&gt;所有友方单位&lt;/c&gt;获得&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方全体&lt;color=#1ac7c8&gt;解穴&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每拥有N点剑法,获得Nx&lt;#x&gt;点&lt;color=#3079b5&gt;剑气&lt;/c&gt;和点&lt;color=#3079b5&gt;剑意&lt;/c&gt;,之后失去所有剑法属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#3079b5&gt;移除&lt;/c&gt;自身所有&lt;color=#9630b5&gt;负面状态&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择&lt;#x&gt;个&lt;color=#9630b5&gt;暗器&lt;/c&gt;.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与自己&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对&lt;#t&gt;造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与&lt;#t&gt;&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与&lt;#t&gt;&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -901,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -916,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -931,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -946,7 +946,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1051,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1170,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1208,7 +1208,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1238,7 +1238,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1300,7 +1300,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1317,7 +1317,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1347,7 +1347,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1377,7 +1377,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1422,7 +1422,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1452,7 +1452,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1482,7 +1482,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1496,7 +1496,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45">
         <v>3</v>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>number</t>
   </si>
@@ -380,87 +380,99 @@
     <t>30b5a5</t>
   </si>
   <si>
+    <t>往自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往&lt;#t&gt;&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁所有手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30b5a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9630b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d74a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,&lt;color=#2E5AD7&gt;所有友方单位&lt;/c&gt;获得&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全体&lt;color=#1ac7c8&gt;解穴&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有N点剑法,获得Nx&lt;#x&gt;点&lt;color=#3079b5&gt;剑气&lt;/c&gt;和点&lt;color=#3079b5&gt;剑意&lt;/c&gt;,之后失去所有剑法属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#3079b5&gt;移除&lt;/c&gt;自身所有&lt;color=#9630b5&gt;负面状态&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#t&gt;&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#t&gt;&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择&lt;#x&gt;个&lt;color=#9630b5&gt;暗器&lt;/c&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠客的&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;值翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对&lt;#t&gt;造成等同于自身&lt;color=#b5a430&gt;护盾值&lt;/c&gt;+&lt;#x&gt;&lt;color=#b53030&gt;伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>往&lt;#t&gt;&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>往自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往&lt;#t&gt;&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往自己&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销毁所有手牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30b5a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF0707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9630b5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1d74a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,&lt;color=#2E5AD7&gt;所有友方单位&lt;/c&gt;获得&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方全体&lt;color=#1ac7c8&gt;解穴&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每拥有N点剑法,获得Nx&lt;#x&gt;点&lt;color=#3079b5&gt;剑气&lt;/c&gt;和点&lt;color=#3079b5&gt;剑意&lt;/c&gt;,之后失去所有剑法属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#3079b5&gt;移除&lt;/c&gt;自身所有&lt;color=#9630b5&gt;负面状态&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与自己&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与&lt;#t&gt;&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与&lt;#t&gt;&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择&lt;#x&gt;个&lt;color=#9630b5&gt;暗器&lt;/c&gt;.</t>
+    <t>给与自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;卡牌张数+&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对&lt;#t&gt;造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌销毁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -856,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -871,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -886,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -931,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1006,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1051,7 +1063,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1060,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1091,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1170,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1208,7 +1220,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1223,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1238,7 +1250,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1253,7 +1265,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1277,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1300,7 +1312,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1317,7 +1329,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1377,7 +1389,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1422,7 +1434,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1452,7 +1464,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1482,7 +1494,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1496,7 +1508,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1509,15 +1521,62 @@
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>number</t>
   </si>
@@ -361,118 +361,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>给与自己&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自己造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;#t&gt;造成&lt;color=#846409&gt;击退&lt;#x&gt;&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30b5a5</t>
+  </si>
+  <si>
+    <t>往自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往&lt;#t&gt;&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往自己&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁所有手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30b5a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9630b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d74a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,&lt;color=#2E5AD7&gt;所有友方单位&lt;/c&gt;获得&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全体&lt;color=#1ac7c8&gt;解穴&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有N点剑法,获得Nx&lt;#x&gt;点&lt;color=#3079b5&gt;剑气&lt;/c&gt;和点&lt;color=#3079b5&gt;剑意&lt;/c&gt;,之后失去所有剑法属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#3079b5&gt;移除&lt;/c&gt;自身所有&lt;color=#9630b5&gt;负面状态&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#t&gt;&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#t&gt;&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择&lt;#x&gt;个&lt;color=#9630b5&gt;暗器&lt;/c&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠客的&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;值翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对&lt;#t&gt;造成等同于自身&lt;color=#b5a430&gt;护盾值&lt;/c&gt;+&lt;#x&gt;&lt;color=#b53030&gt;伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往&lt;#t&gt;&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;卡牌张数+&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对&lt;#t&gt;造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本回合中,你每使用过一张&lt;#x&gt;,获得&lt;#y&gt;点&lt;#z&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>手牌中所有&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗大于等于&lt;#x&gt;得卡牌,本局内永远减少&lt;#y&gt;费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>给与自己&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对自己造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;#t&gt;造成&lt;color=#846409&gt;击退&lt;#x&gt;&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30b5a5</t>
-  </si>
-  <si>
-    <t>往自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往&lt;#t&gt;&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往自己&lt;color=#237b8f&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销毁所有手牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30b5a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF0707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9630b5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1d74a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,&lt;color=#2E5AD7&gt;所有友方单位&lt;/c&gt;获得&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方全体&lt;color=#1ac7c8&gt;解穴&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每拥有N点剑法,获得Nx&lt;#x&gt;点&lt;color=#3079b5&gt;剑气&lt;/c&gt;和点&lt;color=#3079b5&gt;剑意&lt;/c&gt;,之后失去所有剑法属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#3079b5&gt;移除&lt;/c&gt;自身所有&lt;color=#9630b5&gt;负面状态&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与自己&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与&lt;#t&gt;&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与&lt;#t&gt;&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择&lt;#x&gt;个&lt;color=#9630b5&gt;暗器&lt;/c&gt;.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠客的&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;值翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对&lt;#t&gt;造成等同于自身&lt;color=#b5a430&gt;护盾值&lt;/c&gt;+&lt;#x&gt;&lt;color=#b53030&gt;伤害&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往&lt;#t&gt;&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;卡牌张数+&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对&lt;#t&gt;造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
+    <t>令目标身上的&lt;#x&gt;翻&lt;#y&gt;倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -868,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -883,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -898,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -913,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -928,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -943,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -958,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1018,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1063,7 +1071,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1072,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1103,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1120,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1182,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1220,7 +1228,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1235,7 +1243,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1250,7 +1258,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1265,7 +1273,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1289,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1312,7 +1320,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1329,7 +1337,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1359,7 +1367,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1389,7 +1397,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1434,7 +1442,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1464,7 +1472,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1494,7 +1502,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1508,7 +1516,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1522,7 +1530,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1536,7 +1544,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1550,7 +1558,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1559,22 +1567,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>number</t>
   </si>
@@ -396,91 +396,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>9630b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d74a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,&lt;color=#2E5AD7&gt;所有友方单位&lt;/c&gt;获得&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全体&lt;color=#1ac7c8&gt;解穴&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每拥有N点剑法,获得Nx&lt;#x&gt;点&lt;color=#3079b5&gt;剑气&lt;/c&gt;和点&lt;color=#3079b5&gt;剑意&lt;/c&gt;,之后失去所有剑法属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#3079b5&gt;移除&lt;/c&gt;自身所有&lt;color=#9630b5&gt;负面状态&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#t&gt;&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与&lt;#t&gt;&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择&lt;#x&gt;个&lt;color=#9630b5&gt;暗器&lt;/c&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠客的&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;值翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对&lt;#t&gt;造成等同于自身&lt;color=#b5a430&gt;护盾值&lt;/c&gt;+&lt;#x&gt;&lt;color=#b53030&gt;伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;卡牌张数+&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对&lt;#t&gt;造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本回合中,你每使用过一张&lt;#x&gt;,获得&lt;#y&gt;点&lt;#z&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌中所有&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗大于等于&lt;#x&gt;得卡牌,本局内永远减少&lt;#y&gt;费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令目标身上的&lt;#x&gt;翻&lt;#y&gt;倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往&lt;#t&gt;&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;选择&lt;#x&gt;张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从&lt;color=#8f8123&gt;抽牌堆&lt;/c&gt;选择&lt;#x&gt;张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CF0707</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9630b5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1d74a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,&lt;color=#2E5AD7&gt;所有友方单位&lt;/c&gt;获得&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方全体&lt;color=#1ac7c8&gt;解穴&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每拥有N点剑法,获得Nx&lt;#x&gt;点&lt;color=#3079b5&gt;剑气&lt;/c&gt;和点&lt;color=#3079b5&gt;剑意&lt;/c&gt;,之后失去所有剑法属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#3079b5&gt;移除&lt;/c&gt;自身所有&lt;color=#9630b5&gt;负面状态&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与自己&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与&lt;#t&gt;&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与&lt;#t&gt;&lt;color=#30b541&gt;&lt;#x&gt;点治疗效果&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择&lt;#x&gt;个&lt;color=#9630b5&gt;暗器&lt;/c&gt;.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠客的&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;值翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对&lt;#t&gt;造成等同于自身&lt;color=#b5a430&gt;护盾值&lt;/c&gt;+&lt;#x&gt;&lt;color=#b53030&gt;伤害&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当此牌被&lt;color=#30b5a5&gt;弃掉&lt;/c&gt;时,获得&lt;#x&gt;点&lt;color=#3079b5&gt;真气&lt;/c&gt;值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往&lt;#t&gt;&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;放入&lt;#x&gt;张&lt;#y&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给与自己&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;卡牌张数+&lt;#x&gt;点&lt;color=#b5a430&gt;护盾&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对&lt;#t&gt;造成&lt;color=#b53030&gt;&lt;#x&gt;点伤害&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本回合中,你每使用过一张&lt;#x&gt;,获得&lt;#y&gt;点&lt;#z&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌中所有&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗大于等于&lt;#x&gt;得卡牌,本局内永远减少&lt;#y&gt;费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>令目标身上的&lt;#x&gt;翻&lt;#y&gt;倍</t>
+    <t>从&lt;color=#CF0707&gt;销毁卡堆&lt;/c&gt;选择&lt;#x&gt;张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入手牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -891,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -906,7 +922,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -951,7 +967,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1026,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1071,7 +1087,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1080,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1190,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1228,7 +1244,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1297,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1337,7 +1353,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1367,7 +1383,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1397,7 +1413,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1442,7 +1458,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1472,7 +1488,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1502,7 +1518,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1516,7 +1532,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1530,7 +1546,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1544,7 +1560,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1558,7 +1574,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1567,12 +1583,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1581,12 +1597,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1595,14 +1611,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>number</t>
   </si>
@@ -357,10 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打出后自身&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗减少一点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>给与自己&lt;color=#b5a430&gt;&lt;#x&gt;点护盾&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,6 +493,14 @@
   </si>
   <si>
     <t>放入手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出后此卡&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗减少一点(本次战斗)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将&lt;color=#8f8123&gt;弃牌堆&lt;/c&gt;中真气消耗等于0的卡牌,放入手牌中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -892,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -907,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -922,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -937,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -952,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -967,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -982,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1042,7 +1046,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1087,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1096,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1127,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1144,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1206,7 +1210,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1244,7 +1248,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1259,7 +1263,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1274,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1289,7 +1293,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1313,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1336,7 +1340,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1353,7 +1357,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1383,7 +1387,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1413,7 +1417,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1458,7 +1462,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1488,7 +1492,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1503,7 +1507,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1518,7 +1522,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1532,7 +1536,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1546,7 +1550,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1560,7 +1564,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1574,7 +1578,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1588,7 +1592,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1602,7 +1606,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1616,7 +1620,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1631,7 +1635,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1646,7 +1650,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1661,12 +1665,26 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
         <v>1</v>
       </c>
     </row>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B2F6E9-829A-4E11-BF44-ADCF8354D9D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -236,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>number</t>
   </si>
@@ -507,7 +508,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -843,21 +844,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76.375" customWidth="1"/>
-    <col min="3" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" customWidth="1"/>
+    <col min="3" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -891,7 +892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -906,7 +907,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -921,7 +922,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -936,7 +937,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -951,7 +952,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -966,7 +967,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -981,7 +982,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -996,7 +997,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1011,7 +1012,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1041,7 +1042,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1071,7 +1072,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1166,7 +1167,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1181,7 +1182,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1196,7 +1197,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1228,7 +1229,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1243,7 +1244,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1258,7 +1259,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1273,7 +1274,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1288,7 +1289,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1303,7 +1304,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1335,7 +1336,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1367,7 +1368,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1382,7 +1383,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1397,7 +1398,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1412,7 +1413,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1427,7 +1428,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1442,7 +1443,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1457,7 +1458,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1472,7 +1473,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1487,7 +1488,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1502,7 +1503,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1517,7 +1518,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1630,7 +1631,7 @@
       </c>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1645,7 +1646,7 @@
       </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1660,7 +1661,7 @@
       </c>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1687,6 +1688,21 @@
       <c r="D55">
         <v>1</v>
       </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/skill_result.xlsx
+++ b/excel/skill_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B2F6E9-829A-4E11-BF44-ADCF8354D9D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4178F7EB-8D4B-4D83-8CBF-AE440D217408}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
